--- a/ClavileñoXLSImport/ejemplo2.xlsx
+++ b/ClavileñoXLSImport/ejemplo2.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="390" windowWidth="23475" windowHeight="10005"/>
+    <workbookView xWindow="360" yWindow="390" windowWidth="23475" windowHeight="10005" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="@note" sheetId="1" r:id="rId1"/>
+    <sheet name="Test2" sheetId="2" r:id="rId2"/>
+    <sheet name="Test3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Alumno </t>
   </si>
@@ -25,6 +25,24 @@
   </si>
   <si>
     <t>Nota Con</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hola </t>
+  </si>
+  <si>
+    <t>como</t>
+  </si>
+  <si>
+    <t>Estas</t>
   </si>
 </sst>
 </file>
@@ -414,7 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -1088,24 +1106,382 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>38</v>
+      </c>
+      <c r="C10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>42</v>
+      </c>
+      <c r="C14">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>43</v>
+      </c>
+      <c r="C15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>45</v>
+      </c>
+      <c r="C17">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>46</v>
+      </c>
+      <c r="C18">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>47</v>
+      </c>
+      <c r="C19">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>49</v>
+      </c>
+      <c r="C21">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>51</v>
+      </c>
+      <c r="C23">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>52</v>
+      </c>
+      <c r="C24">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>53</v>
+      </c>
+      <c r="C25">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>675</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>324</v>
+      </c>
+      <c r="C6">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f ca="1">SUM(A2:A7)</f>
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <f ca="1">SUM(B2:B7)</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f ca="1">SUM(C2:C7)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>